--- a/nlp/crawling/crawler/Crawling_Result/URL_DATA/아이디병원_Youtube_Comment.xlsx
+++ b/nlp/crawling/crawler/Crawling_Result/URL_DATA/아이디병원_Youtube_Comment.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>아이디올 미니리프팅이 대세🔥 남자 리프팅이 늘고있다?! 자연스럽게 처진살 올려🙌🏻 아빠가 젊어졌어요〰</t>
+          <t>수능 후 성형, 무엇이든 물어보세요! 수험생, 겨울방학 성형 이것만 알면 걱정 끝💯</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13moEYCWy74</t>
+          <t>MWt4eXagCvE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4050 중년눈성형 트렌드! 상하안검 수술로 20년 젊어졌다?!😲 (+안검하수 자가진단법) | 성형학개론</t>
+          <t>동안되기 첫걸음 중년눈성형❗ 오징어게임 배우로 보는  눈썹밑 거상술, 상하안검수술○△□</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>kaSVSsnTBwY</t>
+          <t>jafOSDr9wBk</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>자연스러운 가슴성형🧡 진짜같은 촉감에 꽉찬 볼륨까지〰 #shorts</t>
+          <t>아이디올 미니리프팅이 대세🔥 남자 리프팅이 늘고있다?! 자연스럽게 처진살 올려🙌🏻 아빠가 젊어졌어요〰</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>aYswL13o5Zo</t>
+          <t>13moEYCWy74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>아이디올 리프팅 ✨ 숨은 주름 하나까지 당겨주실게요~ 쫀쫀 탱탱 피부 완성🙌🏻 #shorts</t>
+          <t>4050 중년눈성형 트렌드! 상하안검 수술로 20년 젊어졌다?!😲 (+안검하수 자가진단법) | 성형학개론</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TW-stAv_LWA</t>
+          <t>kaSVSsnTBwY</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&amp;quot;우리가 못하는건 없으니까요&amp;quot; 코성형 장인 9인 원장단의 흥미진진 코수술 이야기, 곧 시작됩니다🔜</t>
+          <t>자연스러운 가슴성형🧡 진짜같은 촉감에 꽉찬 볼륨까지〰 #shorts</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NYrHkXjiPqU</t>
+          <t>aYswL13o5Zo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>아이디올 리프팅 ✨ 처진살 쫙 당겨⬆⬆ 턱선 매끈하게 정리된거 실화? #shorts</t>
+          <t>아이디올 리프팅 ✨ 숨은 주름 하나까지 당겨주실게요~ 쫀쫀 탱탱 피부 완성🙌🏻 #shorts</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>tHcr2fnt0nk</t>
+          <t>TW-stAv_LWA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>아이디올 리프팅 ✨ 이래서 안면거상 하는구나~ 이중턱 탈출 V라인 만들기!! #shorts</t>
+          <t>아이디올 리프팅 ✨ 처진살 쫙 당겨⬆⬆ 턱선 매끈하게 정리된거 실화? #shorts</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>nJoBK4AEFB4</t>
+          <t>tHcr2fnt0nk</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>아이디올 미니리프팅이 대세🔥 처진 볼살 UP⬆ 리프팅으로 심술보 없애고 V라인 동안 됐다!?</t>
+          <t>아이디올 리프팅 ✨ 이래서 안면거상 하는구나~ 이중턱 탈출 V라인 만들기!! #shorts</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>k5dZYatOHh8</t>
+          <t>nJoBK4AEFB4</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>아이디올 리프팅 ✨ 미니리프팅으로 심술보 Bye~ 10년은 젋어졌네!⏰ #shorts</t>
+          <t>아이디올 미니리프팅이 대세🔥 처진 볼살 UP⬆ 리프팅으로 심술보 없애고 V라인 동안 됐다!?</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>xpXErAdIhgo</t>
+          <t>k5dZYatOHh8</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>아이디올 리프팅 ✨ 다시 찾은 턱라인😲 미니리프팅 했다고 전해라~ #shorts</t>
+          <t>아이디올 리프팅 ✨ 미니리프팅으로 심술보 Bye~ 10년은 젋어졌네!⏰ #shorts</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ecywl7VpmEg</t>
+          <t>xpXErAdIhgo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>아이디올 리프팅 ✨ 세월 역주행한 비결은? 미니리프팅 &amp;amp; 최소절개 스마스 리프팅! #shorts</t>
+          <t>아이디올 리프팅 ✨ 다시 찾은 턱라인😲 미니리프팅 했다고 전해라~ #shorts</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>zcESd1fTeNc</t>
+          <t>Ecywl7VpmEg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>아이디올 미니리프팅이 대세🔥 숨어있던 턱선 등장! 한숨 자고나니 20년전 매끈한 얼굴 됐다?!</t>
+          <t>아이디올 리프팅 ✨ 세월 역주행한 비결은? 미니리프팅 &amp;amp; 최소절개 스마스 리프팅! #shorts</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ne1BtahjNsU</t>
+          <t>zcESd1fTeNc</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>나는 윤곽수술 케이스? 양악수술 케이스? 10초만에 알 수 있는 자가진단법📝 | 윤곽&amp;amp;양악수술 차이점, 수술법, 회복 총정리</t>
+          <t>아이디올 미니리프팅이 대세🔥 숨어있던 턱선 등장! 한숨 자고나니 20년전 매끈한 얼굴 됐다?!</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LJFHk-5wa_c</t>
+          <t>ne1BtahjNsU</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>아이디올 미니리프팅이 대세🔥│볼살, 턱살 처짐포인트 아이디올에서 집중관리 들어갑니다❗❗ 쫀쫀해진 얼굴로 카메라 앞에서 자신감 뿜뿜〰</t>
+          <t>나는 윤곽수술 케이스? 양악수술 케이스? 10초만에 알 수 있는 자가진단법📝 | 윤곽&amp;amp;양악수술 차이점, 수술법, 회복 총정리</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ppsyZUo0Eug</t>
+          <t>LJFHk-5wa_c</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>꼭 새벽에 운동하는 이유? 이런 남편 또 없습니다,, 유니콘🦄 성형외과 의사의 출근길 #출터뷰</t>
+          <t>아이디올 미니리프팅이 대세🔥│볼살, 턱살 처짐포인트 아이디올에서 집중관리 들어갑니다❗❗ 쫀쫀해진 얼굴로 카메라 앞에서 자신감 뿜뿜〰</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>QwoGxvLM5Ts</t>
+          <t>ppsyZUo0Eug</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>아이디올 미니리프팅이 대세🔥│팔자주름, 처진 볼살 UP⬆ 젊어진 피부탄력! 달라진 옆라인?😍 위풍당당 동안되고 시니어모델 도전!</t>
+          <t>꼭 새벽에 운동하는 이유? 이런 남편 또 없습니다,, 유니콘🦄 성형외과 의사의 출근길 #출터뷰</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>iEsKL2Dba4A</t>
+          <t>QwoGxvLM5Ts</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>나랑 총싸움 할 사람~~? 🔫 #shorts #오징어게임</t>
+          <t>아이디올 미니리프팅이 대세🔥│팔자주름, 처진 볼살 UP⬆ 젊어진 피부탄력! 달라진 옆라인?😍 위풍당당 동안되고 시니어모델 도전!</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0Tz0RfB0JR4</t>
+          <t>iEsKL2Dba4A</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>중년눈성형 상하안검수술 총정리! 상안검, 하안검이 진짜 필요한 분들은 누구? | 수술법, 회복기간</t>
+          <t>나랑 총싸움 할 사람~~? 🔫 #shorts #오징어게임</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Y46LRVl9X7c</t>
+          <t>0Tz0RfB0JR4</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>성형외과 의사들의 스키스키춤💗💙 #shorts #dance</t>
+          <t>중년눈성형 상하안검수술 총정리! 상안검, 하안검이 진짜 필요한 분들은 누구? | 수술법, 회복기간</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8MVkxL8_qmE</t>
+          <t>Y46LRVl9X7c</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>성형외과 의사들의 #아이큐테스트 2탄 #shorts #test</t>
+          <t>성형외과 의사들의 스키스키춤💗💙 #shorts #dance</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>N5QR9rIafrA</t>
+          <t>8MVkxL8_qmE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>양악수술은 꼭 대학병원에서 해야한다? 병원 선택할 때 이것만 알면 된다! &amp;#39;얼굴뼈 외길&amp;#39; 양악 전문의 솔직 인터뷰 2탄</t>
+          <t>성형외과 의사들의 #아이큐테스트 2탄 #shorts #test</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>QVI4zw5_Erw</t>
+          <t>N5QR9rIafrA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>주걱턱으로 밥도 제대로 못 먹던 스무살 | 아이디병원, 양악수술 지원</t>
+          <t>양악수술은 꼭 대학병원에서 해야한다? 병원 선택할 때 이것만 알면 된다! &amp;#39;얼굴뼈 외길&amp;#39; 양악 전문의 솔직 인터뷰 2탄</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mft2cCIiXqE</t>
+          <t>QVI4zw5_Erw</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>아이디치과, 국내 최초 인비절라인 블루다이아몬드 등급 획득💎</t>
+          <t>주걱턱으로 밥도 제대로 못 먹던 스무살 | 아이디병원, 양악수술 지원</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>dc7SNkiURhs</t>
+          <t>Mft2cCIiXqE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>눈매교정, 쌍수랑 똑같은거 아닌가요? 트임도 같이 할 수 있나요? 눈매교정,쌍커풀수술 차이점! 궁금한 사람 다 모여🙋🏻‍♀️🙋🏻‍♂️</t>
+          <t>아이디치과, 국내 최초 인비절라인 블루다이아몬드 등급 획득💎</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5SCABMHdSSM</t>
+          <t>dc7SNkiURhs</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>방탄소년단 지민 닮고싶어 성형 18번한 사람?! 의사들이 말하는 &amp;quot;성형수술 몇 번까지 해봤니?&amp;quot; #꼬꼬성</t>
+          <t>눈매교정, 쌍수랑 똑같은거 아닌가요? 트임도 같이 할 수 있나요? 눈매교정,쌍커풀수술 차이점! 궁금한 사람 다 모여🙋🏻‍♀️🙋🏻‍♂️</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>GVM8PK1oGos</t>
+          <t>5SCABMHdSSM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>의사가 다른 병원 상담도 권하는 이유? &amp;#39;얼굴뼈 외길&amp;#39; 양악 전문의의 솔직 인터뷰</t>
+          <t>방탄소년단 지민 닮고싶어 성형 18번한 사람?! 의사들이 말하는 &amp;quot;성형수술 몇 번까지 해봤니?&amp;quot; #꼬꼬성</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2g8zs71gMLk</t>
+          <t>GVM8PK1oGos</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>실제 수술도구로 직접 보여드립니다👉🏻 의대생들이 윤곽수술하는 방법(feat. 소뼈)</t>
+          <t>의사가 다른 병원 상담도 권하는 이유? &amp;#39;얼굴뼈 외길&amp;#39; 양악 전문의의 솔직 인터뷰</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Apls3nf0fPg</t>
+          <t>2g8zs71gMLk</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>치과의사가 추는 제로투의 신세계 #shorts</t>
+          <t>실제 수술도구로 직접 보여드립니다👉🏻 의대생들이 윤곽수술하는 방법(feat. 소뼈)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3Vwg8URQmCc</t>
+          <t>Apls3nf0fPg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>어서와 성형외과 의사 제로투는 처음이지? #shorts</t>
+          <t>치과의사가 추는 제로투의 신세계 #shorts</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>VlQh5Hpwef0</t>
+          <t>3Vwg8URQmCc</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>굿 애프터, 굿 V라인✨ id 안면윤곽센터 #shorts</t>
+          <t>어서와 성형외과 의사 제로투는 처음이지? #shorts</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>jhGl9t3i2hM</t>
+          <t>VlQh5Hpwef0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>평생 아름답게, 나에게 집중하세요 :) 리프팅집중센터 ✨아이디올✨</t>
+          <t>굿 애프터, 굿 V라인✨ id 안면윤곽센터 #shorts</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>q5RUTyoLPnY</t>
+          <t>jhGl9t3i2hM</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>id안면윤곽센터, 작고 예쁜 얼굴의 시작🎁 #shorts</t>
+          <t>평생 아름답게, 나에게 집중하세요 :) 리프팅집중센터 ✨아이디올✨</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>f5RgF2-hU84</t>
+          <t>q5RUTyoLPnY</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>아이디병원 &amp;#39;4년 누적 최다 성형수술&amp;#39; 한국기록원 공식 인증🥇</t>
+          <t>id안면윤곽센터, 작고 예쁜 얼굴의 시작🎁 #shorts</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>uEyC1L3SY2E</t>
+          <t>f5RgF2-hU84</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>삼백안도 성형으로 만들 수 있다?! 의사가 권하지 않는 눈수술?! 삼백안 궁금증을 해결해드립니다👀</t>
+          <t>아이디병원 &amp;#39;4년 누적 최다 성형수술&amp;#39; 한국기록원 공식 인증🥇</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MDJJvRSwY28</t>
+          <t>uEyC1L3SY2E</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>윤곽수술은 광대뼈를 갈아낸다? 두피절개 수술을 아직도?!💦</t>
+          <t>삼백안도 성형으로 만들 수 있다?! 의사가 권하지 않는 눈수술?! 삼백안 궁금증을 해결해드립니다👀</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>E_UASyO7KAU</t>
+          <t>MDJJvRSwY28</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>사각턱+광대+턱끝까지 한번에! 안면윤곽은 아이디🥰 #shorts</t>
+          <t>윤곽수술은 광대뼈를 갈아낸다? 두피절개 수술을 아직도?!💦</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4hnsdouNWBg</t>
+          <t>E_UASyO7KAU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>윤곽수술=뼈를 깎는 고통😱 실화인가요? 수술 통증·감각 회복 총정리</t>
+          <t>사각턱+광대+턱끝까지 한번에! 안면윤곽은 아이디🥰 #shorts</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>xD6n0AX46rE</t>
+          <t>4hnsdouNWBg</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>살아난 V라인✌🏻 미니리프팅은 아이디에서! #shorts</t>
+          <t>윤곽수술=뼈를 깎는 고통😱 실화인가요? 수술 통증·감각 회복 총정리</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PBTmzTxiQ6s</t>
+          <t>xD6n0AX46rE</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1616,17 +1616,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>제이액터스X아이디병원 &amp;#39;오! 마이 시니어&amp;#39; 컨테스트</t>
+          <t>살아난 V라인✌🏻 미니리프팅은 아이디에서! #shorts</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>제이액터스_J ACTORS</t>
+          <t>아이디병원 - Beauty Wonderland</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>C4lTALTb_Rw</t>
+          <t>PBTmzTxiQ6s</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1646,17 +1646,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>⭐오! 마이 시니어⭐ 지금이 시작입니다, 당신의 꿈에 도전하세요│시니어 모델 모집</t>
+          <t>제이액터스X아이디병원 &amp;#39;오! 마이 시니어&amp;#39; 컨테스트</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>아이디병원 - Beauty Wonderland</t>
+          <t>제이액터스_J ACTORS</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>epB4ksacMKE</t>
+          <t>C4lTALTb_Rw</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>세빈,모티바,멘토... 보형물 종류가 이렇게 많다고?! 제일 잘나가는 인기템까지 알려드립니다💚</t>
+          <t>⭐오! 마이 시니어⭐ 지금이 시작입니다, 당신의 꿈에 도전하세요│시니어 모델 모집</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>tWG4yAJNsvI</t>
+          <t>epB4ksacMKE</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>✨스킨부스터 핫.이.슈✨ 완전 신상! 네오스템의 모든 것│아이디피부과</t>
+          <t>세빈,모티바,멘토... 보형물 종류가 이렇게 많다고?! 제일 잘나가는 인기템까지 알려드립니다💚</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>B7MIbXjcSHA</t>
+          <t>tWG4yAJNsvI</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>✨👨🏻‍⚕️존잘러 성형외과 원장님과 함께하는 마지막 라이브방송!!✨</t>
+          <t>✨스킨부스터 핫.이.슈✨ 완전 신상! 네오스템의 모든 것│아이디피부과</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>jmF0jODh4fM</t>
+          <t>B7MIbXjcSHA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>아스트라제네카 백신 후기│코로나 백신 2차 접종까지 완료! 1차 때와 달라진 증상, 차이점</t>
+          <t>✨👨🏻‍⚕️존잘러 성형외과 원장님과 함께하는 마지막 라이브방송!!✨</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>yeFgHNRMyQ8</t>
+          <t>jmF0jODh4fM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>인비절라인 교정하면 음식🍗🍔도 마음껏 먹을 수 있다?!│강냉이TV 시즌2</t>
+          <t>아스트라제네카 백신 후기│코로나 백신 2차 접종까지 완료! 1차 때와 달라진 증상, 차이점</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>And1xIMItow</t>
+          <t>yeFgHNRMyQ8</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>윤곽수술 고정핀, 공항검색대에서 소리날까봐 걱정돼요😨</t>
+          <t>인비절라인 교정하면 음식🍗🍔도 마음껏 먹을 수 있다?!│강냉이TV 시즌2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WntWDfnFKyA</t>
+          <t>And1xIMItow</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>인비절라인에도 등급이 있다! 블랙 다이아몬드💎가 뭔가요? │강냉이TV 시즌2</t>
+          <t>윤곽수술 고정핀, 공항검색대에서 소리날까봐 걱정돼요😨</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-5Eo4HIFJYA</t>
+          <t>WntWDfnFKyA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>윤곽수술 핫.이.슈. 살처짐 위험군이 따로 있다는데!?</t>
+          <t>인비절라인에도 등급이 있다! 블랙 다이아몬드💎가 뭔가요? │강냉이TV 시즌2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>aXi1tmE7sfY</t>
+          <t>-5Eo4HIFJYA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>노원 아이디치과│치아교정만으로 양악효과가 가능한가요❓ / 리뷰 읽어주는 의사👨‍⚕️</t>
+          <t>윤곽수술 핫.이.슈. 살처짐 위험군이 따로 있다는데!?</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>r86Zj70wUHY</t>
+          <t>aXi1tmE7sfY</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
